--- a/data/output/synthetic_deals.xlsx
+++ b/data/output/synthetic_deals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASV</t>
+          <t>IMEA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -593,12 +593,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Won</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Etihad</t>
+          <t>Cadent</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>24.19</v>
+        <v>65.64</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -616,42 +616,42 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Language/  Regional/ Gender Diversity</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>Relationship</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Alliances/ Partners fit</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Commercials</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Optimized partner Rate cards</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Solution</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Business value proposition</t>
+          <t>Analyst/ TPA Relations</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Lost due to gaps in alliances/ partners fit and competitive pressure on optimized partner rate cards.</t>
+          <t>Won due to strong capability_or_credentials and compelling capability_or_credentials story. TCV $32.74 validated.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q2'25</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -685,22 +685,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IMEA</t>
+          <t>APJ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q1'24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Aborted</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Etihad</t>
+          <t>MOHRE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>85.5</v>
+        <v>50.79</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -733,27 +733,27 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Loading/Input parameters as per guidelines (productivity, HTR, Premium/niche, offshore)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>Solution</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Demo/ Show &amp; Tell/ Video</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Strategic_Initiatives</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Strong Outcome-based Deal Strategy</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Lost due to gaps in mahindra group leverage and competitive pressure on demo/ show &amp; tell/ video.</t>
+          <t>Aborted due to qualification issues or lack of alignment in demo/ show &amp; tell/ video.</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -762,12 +762,12 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Q3'25</t>
+          <t>Q2'25</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -792,7 +792,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q4'24</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>80.55</v>
+        <v>96.64</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -825,22 +825,22 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Strategic_Initiatives</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mahindra Group leverage</t>
+          <t>Domain/ Functional Expertise / Industry trends</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Solution</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>PoV/ Thought Leadership</t>
+          <t>Analyst Quadrant/ Brand Perception</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Quality of RFP/ Proactive Deal sourcing</t>
+          <t>Customer Bias</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Aborted due to qualification issues or lack of alignment in quality of rfp/ proactive deal sourcing.</t>
+          <t>Aborted due to qualification issues or lack of alignment in customer bias.</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Q3'25</t>
+          <t>Q4'25</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -889,22 +889,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>IMEA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q4'24</t>
+          <t>Q2'24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Won</t>
+          <t>Aborted</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Etihad</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>38.36</v>
+        <v>65.13</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -922,17 +922,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Deviation/fit to win price</t>
+          <t>Analyst/ TPA Relations</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -947,17 +947,17 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Solution</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Demo/ Show &amp; Tell/ Video</t>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Won due to strong commercials and compelling strategic_initiatives story. TCV $63.23 validated.</t>
+          <t>Aborted due to qualification issues or lack of alignment in references (scale, domain, usecase) &amp; case studies.</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -991,22 +991,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>APJ</t>
+          <t>IMEA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q4'24</t>
+          <t>Q3'25</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Aborted</t>
+          <t>Won</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Cadent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>36.81</v>
+        <v>99.95</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1024,17 +1024,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Relationship</t>
+          <t>Strategic_Initiatives</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Alliances/ Partners fit</t>
+          <t>Strong Outcome-based Deal Strategy</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Relationship</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Deal Coach availability/ fit</t>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Aborted due to qualification issues or lack of alignment in deal coach availability/ fit.</t>
+          <t>Won due to strong strategic_initiatives and compelling capability_or_credentials story. TCV $19.77 validated.</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Q4'25</t>
+          <t>Q2'25</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q2'24</t>
+          <t>Q4'24</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>94.34</v>
+        <v>90.97</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1131,37 +1131,37 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Capability_or_Credentials</t>
+          <t>Strategic_Initiatives</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Delivery Readiness (incl local presence)</t>
+          <t>Mahindra Group leverage</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Solution</t>
+          <t>Strategic_Initiatives</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>PoV/ Thought Leadership</t>
+          <t>Customer GTM Growth</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Capability_or_Credentials</t>
+          <t>Strategic_Initiatives</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Delivery Readiness (incl local presence)</t>
+          <t>Customer GTM Growth</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Lost due to gaps in delivery readiness (incl local presence) and competitive pressure on pov/ thought leadership.</t>
+          <t>Lost due to gaps in mahindra group leverage and competitive pressure on customer gtm growth.</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -1170,12 +1170,12 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Q2'25</t>
+          <t>Q4'25</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1195,22 +1195,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ASV</t>
+          <t>IMEA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q3'25</t>
+          <t>Q1'25</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Won</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MOHRE</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>29.28</v>
+        <v>97.95</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Loading/Input parameters as per guidelines (productivity, HTR, Premium/niche, offshore)</t>
+          <t>Deviation/fit to win price</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Strategic_Initiatives</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Strong Outcome-based Deal Strategy</t>
+          <t>Deal Coach availability/ fit</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Capability_or_Credentials</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Language/  Regional/ Gender Diversity</t>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Lost due to gaps in loading/input parameters as per guidelines (productivity, htr, premium/niche, offshore) and competitive pressure on strong outcome-based deal strategy.</t>
+          <t>Won due to strong commercials and compelling relationship story. TCV $5.91 validated.</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>APJ</t>
+          <t>ASV</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q2'25</t>
+          <t>Q4'24</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Won</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>81.81999999999999</v>
+        <v>40.23</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Relationship</t>
+          <t>Commercials</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Analyst/ TPA Relations</t>
+          <t>Commercial parameters as per guidelines (contingency, bought out)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Relationship</t>
+          <t>Solution</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Alliances/ Partners fit</t>
+          <t>Availability of SMEs</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Demo/ Show &amp; Tell/ Video</t>
+          <t>PoV/ Thought Leadership</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Won due to strong relationship and compelling relationship story. TCV $53.19 validated.</t>
+          <t>Lost due to gaps in commercial parameters as per guidelines (contingency, bought out) and competitive pressure on availability of smes.</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Q4'25</t>
+          <t>Q3'25</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -1399,22 +1399,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IMEA</t>
+          <t>ASV</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q2'24</t>
+          <t>Q1'24</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Won</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cadent</t>
+          <t>Cummins</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>96.95999999999999</v>
+        <v>36.02</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1432,17 +1432,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Loading/Input parameters as per guidelines (productivity, HTR, Premium/niche, offshore)</t>
+          <t>Language/  Regional/ Gender Diversity</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1452,22 +1452,22 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Language/  Regional/ Gender Diversity</t>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Capability_or_Credentials</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Analyst Quadrant/ Brand Perception</t>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Lost due to gaps in loading/input parameters as per guidelines (productivity, htr, premium/niche, offshore) and competitive pressure on language/  regional/ gender diversity.</t>
+          <t>Won due to strong capability_or_credentials and compelling capability_or_credentials story. TCV $50.08 validated.</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Q4'25</t>
+          <t>Q3'25</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -1506,17 +1506,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q4'24</t>
+          <t>Q1'24</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Won</t>
+          <t>Aborted</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>27.17</v>
+        <v>7.12</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1539,37 +1539,37 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Client Relationship (CXOs, decision makers, influencers)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>Capability_or_Credentials</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Solution</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Orals Performance</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Solution</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Cookie cutter solutions for commoditised services vis-à-vis peers</t>
+          <t>Domain/ Functional Expertise / Industry trends</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Won due to strong capability_or_credentials and compelling solution story. TCV $85.93 validated.</t>
+          <t>Aborted due to qualification issues or lack of alignment in domain/ functional expertise / industry trends.</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1578,12 +1578,12 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q2'25</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -1603,22 +1603,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>IMEA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q4'24</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Won</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cadent</t>
+          <t>Etihad</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>55.4</v>
+        <v>63.01</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Effort estimation methodology</t>
+          <t>Customer Bias</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1656,22 +1656,22 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Competition and Incumbency (strategic, CSAT, delivery track record)</t>
+          <t>Client Relationship (CXOs, decision makers, influencers)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Relationship</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Client Relationship (CXOs, decision makers, influencers)</t>
+          <t>Local Presence</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Won due to strong commercials and compelling relationship story. TCV $63.23 validated.</t>
+          <t>Lost due to gaps in customer bias and competitive pressure on client relationship (cxos, decision makers, influencers).</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Q4'25</t>
+          <t>Q1'25</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q2'25</t>
+          <t>Q4'24</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>Cadent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60.67</v>
+        <v>56.56</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1738,42 +1738,42 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Relationship</t>
+          <t>Strategic_Initiatives</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Client Relationship (CXOs, decision makers, influencers)</t>
+          <t>Mahindra Group leverage</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>Capability_or_Credentials</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Relationship</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Client Relationship (CXOs, decision makers, influencers)</t>
+          <t>Language/  Regional/ Gender Diversity</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Lost due to gaps in client relationship (cxos, decision makers, influencers) and competitive pressure on references (scale, domain, usecase) &amp; case studies.</t>
+          <t>Lost due to gaps in mahindra group leverage and competitive pressure on mahindra group leverage.</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1782,7 +1782,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1807,22 +1807,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>APJ</t>
+          <t>IMEA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q2'25</t>
+          <t>Q1'25</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aborted</t>
+          <t>Won</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cadent</t>
+          <t>Cummins</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>84.14</v>
+        <v>8.01</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1840,34 +1840,34 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Capability_or_Credentials</t>
+          <t>Strategic_Initiatives</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Domain/ Functional Expertise / Industry trends</t>
+          <t>Strong Outcome-based Deal Strategy</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PoV/ Thought Leadership</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>Relationship</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Client Relationship (CXOs, decision makers, influencers)</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Relationship</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>Quality of RFP/ Proactive Deal sourcing</t>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Aborted due to qualification issues or lack of alignment in quality of rfp/ proactive deal sourcing.</t>
+          <t>Won due to strong strategic_initiatives and compelling solution story. TCV $19.37 validated.</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -1884,7 +1884,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1909,22 +1909,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>APJ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q1'24</t>
+          <t>Q2'24</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Won</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cummins</t>
+          <t>MOHRE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>66.67</v>
+        <v>22.65</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1942,17 +1942,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Incumbency advantage/discounting</t>
+          <t>Client Relationship (CXOs, decision makers, influencers)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1962,22 +1962,22 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Customer GTM Growth</t>
+          <t>Strong Outcome-based Deal Strategy</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Relationship</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
+          <t>Local Presence</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Won due to strong commercials and compelling strategic_initiatives story. TCV $75.69 validated.</t>
+          <t>Lost due to gaps in client relationship (cxos, decision makers, influencers) and competitive pressure on strong outcome-based deal strategy.</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1986,12 +1986,12 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q2'25</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IMEA</t>
+          <t>ASV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Won</t>
+          <t>Aborted</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Etihad</t>
+          <t>MOHRE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>72.53</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2044,42 +2044,42 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Delivery Readiness (incl local presence)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>Commercials</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Effort estimation methodology</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Solution</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Orals Performance</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Commercials</t>
-        </is>
-      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Optimized partner Rate cards</t>
+          <t>Incumbency advantage/discounting</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Won due to strong commercials and compelling solution story. TCV $9.65 validated.</t>
+          <t>Aborted due to qualification issues or lack of alignment in incumbency advantage/discounting.</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
@@ -2088,12 +2088,12 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Q3'25</t>
+          <t>Q1'25</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ASV</t>
+          <t>IMEA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q2'24</t>
+          <t>Q3'25</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Cummins</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>36.74</v>
+        <v>51.66</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2151,37 +2151,37 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Effort estimation methodology</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Technical Response Quality (coherent, competitive, consultative, competitive)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>Strategic_Initiatives</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Mahindra Group leverage</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Relationship</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Quality of RFP/ Proactive Deal sourcing</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Commercials</t>
-        </is>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Commercial parameters as per guidelines (contingency, bought out)</t>
+          <t>Customer GTM Growth</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Won due to strong strategic_initiatives and compelling relationship story. TCV $77.98 validated.</t>
+          <t>Won due to strong commercials and compelling solution story. TCV $10.23 validated.</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q2'25</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -2220,12 +2220,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q2'25</t>
+          <t>Q3'25</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Won</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>29.65</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2258,32 +2258,32 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Commercial parameters as per guidelines (contingency, bought out)</t>
+          <t>Strong Business case/ Savings</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Solution</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Availability of SMEs</t>
+          <t>Analyst/ TPA Relations</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Incumbency advantage/discounting</t>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Lost due to gaps in commercial parameters as per guidelines (contingency, bought out) and competitive pressure on availability of smes.</t>
+          <t>Won due to strong commercials and compelling relationship story. TCV $70.61 validated.</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
@@ -2292,12 +2292,12 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Q2'25</t>
+          <t>Q4'25</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q1'24</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Etihad</t>
+          <t>Cadent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>96.84</v>
+        <v>25.71</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2350,42 +2350,42 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Solution</t>
+          <t>Commercials</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Orals Performance</t>
+          <t>Pricing model innovation/ Commercial Structure</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Strategic_Initiatives</t>
+          <t>Commercials</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Customer GTM Growth</t>
+          <t>Loading/Input parameters as per guidelines (productivity, HTR, Premium/niche, offshore)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Strategic_Initiatives</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Mahindra Group leverage</t>
+          <t>Competition and Incumbency (strategic, CSAT, delivery track record)</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Aborted due to qualification issues or lack of alignment in mahindra group leverage.</t>
+          <t>Aborted due to qualification issues or lack of alignment in competition and incumbency (strategic, csat, delivery track record).</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -2394,7 +2394,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>IMEA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>Cadent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>90.3</v>
+        <v>48.38</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2457,37 +2457,37 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Quality of RFP/ Proactive Deal sourcing</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>Commercials</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Incumbency advantage/discounting</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Solution</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Process issues (Bid management, reviews, timeline available)</t>
+          <t>Optimized partner Rate cards</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Solution</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Cookie cutter solutions for commoditised services vis-à-vis peers</t>
+          <t>Local Presence</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Aborted due to qualification issues or lack of alignment in cookie cutter solutions for commoditised services vis-à-vis peers.</t>
+          <t>Aborted due to qualification issues or lack of alignment in local presence.</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>APJ</t>
+          <t>ASV</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cummins</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>29.74</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2554,42 +2554,42 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Language/  Regional/ Gender Diversity</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Strong Business case/ Savings</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>Relationship</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Customer Bias</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Relationship</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Client Relationship (CXOs, decision makers, influencers)</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Strategic_Initiatives</t>
-        </is>
-      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Strong Outcome-based Deal Strategy</t>
+          <t>Alliances/ Partners fit</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Won due to strong relationship and compelling relationship story. TCV $89.38 validated.</t>
+          <t>Won due to strong capability_or_credentials and compelling commercials story. TCV $46.48 validated.</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q4'25</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IMEA</t>
+          <t>ASV</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q2'24</t>
+          <t>Q1'25</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Etihad</t>
+          <t>Cadent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>47.47</v>
+        <v>85.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2656,42 +2656,42 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Strategic_Initiatives</t>
+          <t>Commercials</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Customer GTM Growth</t>
+          <t>Strong Business case/ Savings</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Relationship</t>
+          <t>Solution</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Customer Bias</t>
+          <t>Cookie cutter solutions for commoditised services vis-à-vis peers</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Strategic_Initiatives</t>
+          <t>Commercials</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Customer GTM Growth</t>
+          <t>Strong Business case/ Savings</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Won due to strong strategic_initiatives and compelling relationship story. TCV $6.09 validated.</t>
+          <t>Won due to strong commercials and compelling solution story. TCV $65.35 validated.</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
@@ -2700,12 +2700,12 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q3'25</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -2725,12 +2725,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>ASV</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q4'24</t>
+          <t>Q1'24</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>56.74</v>
+        <v>59.29</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2763,22 +2763,22 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Strategic_Initiatives</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Customer GTM Growth</t>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Commercial parameters as per guidelines (contingency, bought out)</t>
+          <t>Delivery Readiness (incl local presence)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2788,12 +2788,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
+          <t>Delivery Readiness (incl local presence)</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Lost due to gaps in customer gtm growth and competitive pressure on commercial parameters as per guidelines (contingency, bought out).</t>
+          <t>Lost due to gaps in references (scale, domain, usecase) &amp; case studies and competitive pressure on delivery readiness (incl local presence).</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q4'24</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>33.34</v>
+        <v>13.58</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2865,37 +2865,37 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Strategic_Initiatives</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Mahindra Group leverage</t>
+          <t>Domain/ Functional Expertise / Industry trends</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Solution</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>PoV/ Thought Leadership</t>
+          <t>Local Presence</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Solution</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Orals Performance</t>
+          <t>Analyst/ TPA Relations</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Aborted due to qualification issues or lack of alignment in orals performance.</t>
+          <t>Aborted due to qualification issues or lack of alignment in analyst/ tpa relations.</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
@@ -2904,12 +2904,12 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Q4'25</t>
+          <t>Q2'25</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IMEA</t>
+          <t>APJ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q2'25</t>
+          <t>Q1'24</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Aborted</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cummins</t>
+          <t>MOHRE</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>35.97</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2962,42 +2962,42 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Solution</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Demo/ Show &amp; Tell/ Video</t>
+          <t>Competition and Incumbency (strategic, CSAT, delivery track record)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Capability_or_Credentials</t>
+          <t>Commercials</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Language/  Regional/ Gender Diversity</t>
+          <t>Incumbency advantage/discounting</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Capability_or_Credentials</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
+          <t>Customer Bias</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Aborted due to qualification issues or lack of alignment in references (scale, domain, usecase) &amp; case studies.</t>
+          <t>Lost due to gaps in competition and incumbency (strategic, csat, delivery track record) and competitive pressure on incumbency advantage/discounting.</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -3006,12 +3006,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Q3'25</t>
+          <t>Q1'25</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -3041,12 +3041,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aborted</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Cadent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>42.08</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -3064,42 +3064,42 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t>Strategic_Initiatives</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Effort estimation methodology</t>
+          <t>Customer GTM Growth</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Incumbency advantage/discounting</t>
+          <t>Language/  Regional/ Gender Diversity</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Strategic_Initiatives</t>
+          <t>Solution</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Strong Outcome-based Deal Strategy</t>
+          <t>Orals Performance</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Aborted due to qualification issues or lack of alignment in strong outcome-based deal strategy.</t>
+          <t>Lost due to gaps in customer gtm growth and competitive pressure on language/  regional/ gender diversity.</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
@@ -3133,22 +3133,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>ASV</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q2'24</t>
+          <t>Q3'25</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Aborted</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cadent</t>
+          <t>Cummins</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>42.79</v>
+        <v>35.49</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -3166,42 +3166,42 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Domain/ Functional Expertise / Industry trends</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>Commercials</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Pricing model innovation/ Commercial Structure</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Solution</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Demo/ Show &amp; Tell/ Video</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Capability_or_Credentials</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Delivery Readiness (incl local presence)</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Lost due to gaps in pricing model innovation/ commercial structure and competitive pressure on demo/ show &amp; tell/ video.</t>
+          <t>Aborted due to qualification issues or lack of alignment in pricing model innovation/ commercial structure.</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -3210,7 +3210,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>APJ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3245,12 +3245,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Aborted</t>
+          <t>Won</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>Etihad</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>54.96</v>
+        <v>89.45999999999999</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -3268,27 +3268,27 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Quality of RFP/ Proactive Deal sourcing</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>Solution</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Cookie cutter solutions for commoditised services vis-à-vis peers</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Solution</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Availability of SMEs</t>
+          <t>Technical Response Quality (coherent, competitive, consultative, competitive)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Aborted due to qualification issues or lack of alignment in local presence.</t>
+          <t>Won due to strong relationship and compelling solution story. TCV $90.19 validated.</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
@@ -3312,12 +3312,12 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q2'25</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -3337,22 +3337,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>ASV</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Q1'24</t>
+          <t>Q4'24</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Aborted</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cadent</t>
+          <t>Etihad</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>85.51000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -3370,42 +3370,42 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Solution</t>
+          <t>Strategic_Initiatives</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Orals Performance</t>
+          <t>Mahindra Group leverage</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Commercial parameters as per guidelines (contingency, bought out)</t>
+          <t>Client Relationship (CXOs, decision makers, influencers)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Strategic_Initiatives</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Customer GTM Growth</t>
+          <t>Domain/ Functional Expertise / Industry trends</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Aborted due to qualification issues or lack of alignment in customer gtm growth.</t>
+          <t>Lost due to gaps in mahindra group leverage and competitive pressure on client relationship (cxos, decision makers, influencers).</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
@@ -3414,12 +3414,12 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Q3'25</t>
+          <t>Q2'25</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -3444,17 +3444,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Q3'25</t>
+          <t>Q2'24</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Won</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Etihad</t>
+          <t>MOHRE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3463,7 +3463,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.27</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -3472,42 +3472,42 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Deviation/fit to win price</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>Strategic_Initiatives</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Mahindra Group leverage</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Relationship</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Alliances/ Partners fit</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t>Solution</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Optimized partner Rate cards</t>
+          <t>Technical Response Quality (coherent, competitive, consultative, competitive)</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Won due to strong strategic_initiatives and compelling relationship story. TCV $15.78 validated.</t>
+          <t>Lost due to gaps in deviation/fit to win price and competitive pressure on mahindra group leverage.</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Q1'25</t>
+          <t>Q2'25</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -3541,22 +3541,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>ASV</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Q1'24</t>
+          <t>Q2'24</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Aborted</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cummins</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>36.16</v>
+        <v>34.62</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Mahindra Group leverage</t>
+          <t>Strong Outcome-based Deal Strategy</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Customer GTM Growth</t>
+          <t>Strong Outcome-based Deal Strategy</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3604,12 +3604,12 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Deviation/fit to win price</t>
+          <t>Optimized partner Rate cards</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Lost due to gaps in mahindra group leverage and competitive pressure on customer gtm growth.</t>
+          <t>Aborted due to qualification issues or lack of alignment in optimized partner rate cards.</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
@@ -3635,6 +3635,7146 @@
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CRM300031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Opportunity 31</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>PoV/ Thought Leadership</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Customer Bias</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Analyst Quadrant/ Brand Perception</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in analyst quadrant/ brand perception.</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CRM300032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Q4'24</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Opportunity 32</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Pricing model innovation/ Commercial Structure</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Availability of SMEs</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in pricing model innovation/ commercial structure and competitive pressure on availability of smes.</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CRM300033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cummins</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Opportunity 33</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>84.56</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>PoV/ Thought Leadership</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Technical Response Quality (coherent, competitive, consultative, competitive)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in mahindra group leverage.</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CRM300034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Opportunity 34</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Availability of SMEs</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Incumbency advantage/discounting</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Competition and Incumbency (strategic, CSAT, delivery track record)</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Won due to strong solution and compelling commercials story. TCV $49.32 validated.</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CRM300035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Opportunity 35</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>36.41</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Deal Coach availability/ fit</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Cookie cutter solutions for commoditised services vis-à-vis peers</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Customer GTM Growth</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in customer gtm growth.</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CRM300036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Opportunity 36</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>48.87</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Cost &amp; Rate benchmarks not available/non-standardised across org</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Quality of RFP/ Proactive Deal sourcing</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Won due to strong commercials and compelling strategic_initiatives story. TCV $22.63 validated.</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CRM300037</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Opportunity 37</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>PoV/ Thought Leadership</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Technical Response Quality (coherent, competitive, consultative, competitive)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in mahindra group leverage.</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CRM300038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Opportunity 38</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Strong Business case/ Savings</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Effort estimation methodology</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Won due to strong commercials and compelling commercials story. TCV $11.53 validated.</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CRM300039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Cadent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Opportunity 39</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Analyst/ TPA Relations</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Customer Bias</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Won due to strong strategic_initiatives and compelling relationship story. TCV $19.32 validated.</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CRM300040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Cadent</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Opportunity 40</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Customer GTM Growth</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in mahindra group leverage and competitive pressure on mahindra group leverage.</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CRM300041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MOHRE</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Opportunity 41</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Process issues (Bid management, reviews, timeline available)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Delivery Readiness (incl local presence)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Demo/ Show &amp; Tell/ Video</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Won due to strong solution and compelling capability_or_credentials story. TCV $93.51 validated.</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CRM300042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Opportunity 42</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Alliances/ Partners fit</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Process issues (Bid management, reviews, timeline available)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Local Presence</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in alliances/ partners fit and competitive pressure on process issues (bid management, reviews, timeline available).</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CRM300043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Cadent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Opportunity 43</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Deal Coach availability/ fit</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Business value proposition</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Domain/ Functional Expertise / Industry trends</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Won due to strong relationship and compelling solution story. TCV $36.34 validated.</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CRM300044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Opportunity 44</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>89.06</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Process issues (Bid management, reviews, timeline available)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Analyst Quadrant/ Brand Perception</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Language/  Regional/ Gender Diversity</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in process issues (bid management, reviews, timeline available) and competitive pressure on analyst quadrant/ brand perception.</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CRM300045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Q4'24</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Opportunity 45</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Analyst Quadrant/ Brand Perception</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Analyst Quadrant/ Brand Perception</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in analyst quadrant/ brand perception.</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CRM300046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>GSK</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Opportunity 46</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>PoV/ Thought Leadership</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Effort estimation methodology</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in pov/ thought leadership and competitive pressure on mahindra group leverage.</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CRM300047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Opportunity 47</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Analyst/ TPA Relations</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Demo/ Show &amp; Tell/ Video</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Availability of SMEs</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in analyst/ tpa relations and competitive pressure on demo/ show &amp; tell/ video.</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CRM300048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GSK</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Opportunity 48</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Delivery Readiness (incl local presence)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Won due to strong capability_or_credentials and compelling capability_or_credentials story. TCV $76.31 validated.</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CRM300049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Cummins</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Opportunity 49</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Availability of SMEs</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in strong outcome-based deal strategy.</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CRM300050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>MOHRE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Opportunity 50</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Competition and Incumbency (strategic, CSAT, delivery track record)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Analyst Quadrant/ Brand Perception</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Alliances/ Partners fit</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in alliances/ partners fit.</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CRM300051</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Cummins</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Opportunity 51</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Effort estimation methodology</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in effort estimation methodology.</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CRM300052</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Opportunity 52</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Business value proposition</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in quality 360° deal intelligence/validation (incl win price).</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CRM300053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cummins</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Opportunity 53</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Customer Bias</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Deviation/fit to win price</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Competition and Incumbency (strategic, CSAT, delivery track record)</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in customer bias and competitive pressure on deviation/fit to win price.</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CRM300054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Opportunity 54</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>53.41</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Optimized partner Rate cards</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in strong outcome-based deal strategy.</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CRM300055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>GSK</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Opportunity 55</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Business value proposition</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Demo/ Show &amp; Tell/ Video</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in business value proposition and competitive pressure on demo/ show &amp; tell/ video.</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CRM300056</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MOHRE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Opportunity 56</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Delivery Readiness (incl local presence)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Alliances/ Partners fit</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Won due to strong capability_or_credentials and compelling relationship story. TCV $55.34 validated.</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CRM300057</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Opportunity 57</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Analyst Quadrant/ Brand Perception</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Analyst/ TPA Relations</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in analyst quadrant/ brand perception and competitive pressure on references (scale, domain, usecase) &amp; case studies.</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CRM300058</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>GSK</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Opportunity 58</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>57.56</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Delivery Readiness (incl local presence)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Analyst Quadrant/ Brand Perception</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in analyst quadrant/ brand perception.</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CRM300059</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Opportunity 59</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>49.53</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Local Presence</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Strong Business case/ Savings</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Loading/Input parameters as per guidelines (productivity, HTR, Premium/niche, offshore)</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in local presence and competitive pressure on strong business case/ savings.</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CRM300060</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Q4'24</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Opportunity 60</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Delivery Readiness (incl local presence)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Optimized partner Rate cards</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Won due to strong capability_or_credentials and compelling commercials story. TCV $93.65 validated.</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CRM300061</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>GSK</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Opportunity 61</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Delivery Readiness (incl local presence)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Deal Coach availability/ fit</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Availability of SMEs</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in availability of smes.</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CRM300062</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Opportunity 62</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Alliances/ Partners fit</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Deviation/fit to win price</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Technical Response Quality (coherent, competitive, consultative, competitive)</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in alliances/ partners fit and competitive pressure on deviation/fit to win price.</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CRM300063</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MOHRE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Opportunity 63</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Deal Coach availability/ fit</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Customer GTM Growth</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in customer gtm growth.</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CRM300064</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Opportunity 64</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Optimized partner Rate cards</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Deal Coach availability/ fit</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in deal coach availability/ fit.</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CRM300065</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MOHRE</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Opportunity 65</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>70.58</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>PoV/ Thought Leadership</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>PoV/ Thought Leadership</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Won due to strong strategic_initiatives and compelling solution story. TCV $73.83 validated.</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CRM300066</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Opportunity 66</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Demo/ Show &amp; Tell/ Video</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Process issues (Bid management, reviews, timeline available)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Delivery Readiness (incl local presence)</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in demo/ show &amp; tell/ video and competitive pressure on process issues (bid management, reviews, timeline available).</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CRM300067</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Q4'24</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Cadent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Opportunity 67</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Analyst Quadrant/ Brand Perception</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Customer Bias</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Business value proposition</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Won due to strong capability_or_credentials and compelling relationship story. TCV $21.02 validated.</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CRM300068</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Opportunity 68</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Customer GTM Growth</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Alliances/ Partners fit</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Strong Business case/ Savings</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in strong business case/ savings.</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CRM300069</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Cadent</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Opportunity 69</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>43.67</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Loading/Input parameters as per guidelines (productivity, HTR, Premium/niche, offshore)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Customer Bias</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Won due to strong commercials and compelling relationship story. TCV $21.12 validated.</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CRM300070</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Cummins</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Opportunity 70</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Client Relationship (CXOs, decision makers, influencers)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Technical Response Quality (coherent, competitive, consultative, competitive)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in client relationship (cxos, decision makers, influencers) and competitive pressure on technical response quality (coherent, competitive, consultative, competitive).</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CRM300071</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Q4'24</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Opportunity 71</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Customer GTM Growth</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in mahindra group leverage and competitive pressure on customer gtm growth.</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CRM300072</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Q4'24</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>GSK</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Opportunity 72</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Process issues (Bid management, reviews, timeline available)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Domain/ Functional Expertise / Industry trends</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in strong outcome-based deal strategy.</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CRM300073</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Opportunity 73</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>72.84999999999999</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Optimized partner Rate cards</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Cookie cutter solutions for commoditised services vis-à-vis peers</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in cookie cutter solutions for commoditised services vis-à-vis peers.</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CRM300074</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Opportunity 74</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Availability of SMEs</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Competition and Incumbency (strategic, CSAT, delivery track record)</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Language/  Regional/ Gender Diversity</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Won due to strong solution and compelling relationship story. TCV $16.12 validated.</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CRM300075</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Opportunity 75</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Domain/ Functional Expertise / Industry trends</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Cost &amp; Rate benchmarks not available/non-standardised across org</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Analyst/ TPA Relations</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in analyst/ tpa relations.</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CRM300076</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Opportunity 76</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Cost &amp; Rate benchmarks not available/non-standardised across org</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>PoV/ Thought Leadership</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Customer Bias</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in cost &amp; rate benchmarks not available/non-standardised across org and competitive pressure on pov/ thought leadership.</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CRM300077</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Cummins</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Opportunity 77</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>51.28</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Customer GTM Growth</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Customer GTM Growth</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in customer gtm growth and competitive pressure on mahindra group leverage.</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CRM300078</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Q4'24</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Cadent</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Opportunity 78</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Quality of RFP/ Proactive Deal sourcing</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Process issues (Bid management, reviews, timeline available)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Optimized partner Rate cards</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Won due to strong relationship and compelling solution story. TCV $15.12 validated.</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CRM300079</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>GSK</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Opportunity 79</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>66.98</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Language/  Regional/ Gender Diversity</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Effort estimation methodology</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in language/  regional/ gender diversity and competitive pressure on strong outcome-based deal strategy.</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CRM300080</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Opportunity 80</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>53.05</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Commercial parameters as per guidelines (contingency, bought out)</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Business value proposition</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in mahindra group leverage and competitive pressure on commercial parameters as per guidelines (contingency, bought out).</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CRM300081</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MOHRE</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Opportunity 81</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>38.04</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Analyst/ TPA Relations</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Orals Performance</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in analyst/ tpa relations and competitive pressure on mahindra group leverage.</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CRM300082</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MOHRE</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Opportunity 82</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Demo/ Show &amp; Tell/ Video</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Customer GTM Growth</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in demo/ show &amp; tell/ video and competitive pressure on customer gtm growth.</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CRM300083</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MOHRE</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Opportunity 83</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>79.05</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Mahindra Group leverage</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Cookie cutter solutions for commoditised services vis-à-vis peers</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Deal Coach availability/ fit</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in mahindra group leverage and competitive pressure on cookie cutter solutions for commoditised services vis-à-vis peers.</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CRM300084</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Cadent</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Opportunity 84</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>47.18</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Demo/ Show &amp; Tell/ Video</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Cost &amp; Rate benchmarks not available/non-standardised across org</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Process issues (Bid management, reviews, timeline available)</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in demo/ show &amp; tell/ video and competitive pressure on cost &amp; rate benchmarks not available/non-standardised across org.</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CRM300085</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Opportunity 85</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>42</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Availability of SMEs</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Language/  Regional/ Gender Diversity</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Local Presence</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in local presence.</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CRM300086</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Opportunity 86</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>47.12</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Local Presence</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Analyst/ TPA Relations</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Won due to strong capability_or_credentials and compelling relationship story. TCV $83.88 validated.</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CRM300087</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Cummins</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Opportunity 87</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Customer Bias</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Optimized partner Rate cards</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Technical Response Quality (coherent, competitive, consultative, competitive)</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in customer bias and competitive pressure on optimized partner rate cards.</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CRM300088</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MOHRE</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Opportunity 88</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>74.23</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Technical Response Quality (coherent, competitive, consultative, competitive)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Pricing model innovation/ Commercial Structure</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Alliances/ Partners fit</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in alliances/ partners fit.</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CRM300089</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Cummins</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Opportunity 89</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>92.89</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Cookie cutter solutions for commoditised services vis-à-vis peers</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Customer GTM Growth</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Incumbency advantage/discounting</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Won due to strong solution and compelling strategic_initiatives story. TCV $84.19 validated.</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CRM300090</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Q4'24</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Opportunity 90</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Delivery Readiness (incl local presence)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Alliances/ Partners fit</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Language/  Regional/ Gender Diversity</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Won due to strong capability_or_credentials and compelling relationship story. TCV $72.68 validated.</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CRM300091</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>GSK</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Opportunity 91</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Strong Outcome-based Deal Strategy</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Analyst Quadrant/ Brand Perception</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Customer Bias</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in customer bias.</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CRM300092</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>MOHRE</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Opportunity 92</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Customer GTM Growth</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Demo/ Show &amp; Tell/ Video</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Orals Performance</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in customer gtm growth and competitive pressure on demo/ show &amp; tell/ video.</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CRM300093</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Q2'24</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>MOHRE</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Opportunity 93</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>89.72</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Pricing model innovation/ Commercial Structure</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Availability of SMEs</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Won due to strong commercials and compelling relationship story. TCV $14.65 validated.</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CRM300094</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Q1'24</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Cummins</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Opportunity 94</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Analyst Quadrant/ Brand Perception</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>PoV/ Thought Leadership</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Deal Coach availability/ fit</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in analyst quadrant/ brand perception and competitive pressure on pov/ thought leadership.</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CRM300095</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>GSK</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Opportunity 95</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Analyst/ TPA Relations</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Language/  Regional/ Gender Diversity</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Business value proposition</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in analyst/ tpa relations and competitive pressure on language/  regional/ gender diversity.</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CRM300096</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Cadent</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Opportunity 96</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Effort estimation methodology</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in quality 360° deal intelligence/validation (incl win price) and competitive pressure on quality 360° deal intelligence/validation (incl win price).</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CRM300097</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Q4'24</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Cadent</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Opportunity 97</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>27</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Commercial parameters as per guidelines (contingency, bought out)</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Alliances/ Partners fit</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Effort estimation methodology</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in effort estimation methodology.</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CRM300098</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Opportunity 98</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Strategic_Initiatives</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Customer GTM Growth</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Incumbency advantage/discounting</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Alliances/ Partners fit</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in customer gtm growth and competitive pressure on incumbency advantage/discounting.</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CRM300099</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>IMEA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Etihad</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Opportunity 99</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Demo/ Show &amp; Tell/ Video</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Domain/ Functional Expertise / Industry trends</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Deviation/fit to win price</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Lost due to gaps in demo/ show &amp; tell/ video and competitive pressure on domain/ functional expertise / industry trends.</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Q3'25</t>
+        </is>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CRM300100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>APJ</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Aborted</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Cadent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Opportunity 100</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>70.05</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Competition and Incumbency (strategic, CSAT, delivery track record)</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Alliances/ Partners fit</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Analyst/ TPA Relations</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Aborted due to qualification issues or lack of alignment in analyst/ tpa relations.</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Q4'25</t>
+        </is>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
